--- a/Doc/Structure project.xlsx
+++ b/Doc/Structure project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RafaProjects\appliedResearchProject\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RafaProjects\Easy_Volunteer\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC13B025-6292-43BD-8293-4EE7A9D2DB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3731F55A-38CF-4A52-9B92-D01849CB93BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BBEEAE4C-D9A8-49C1-9103-65E4C9C14731}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -626,7 +627,7 @@
   <dimension ref="B2:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
